--- a/data/trans_dic/P32A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,75</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,06</t>
+          <t>0,9; 4,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,39</t>
+          <t>0,33; 2,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,06</t>
+          <t>0,86; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +750,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,42</t>
+          <t>0,0; 6,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,8</t>
+          <t>0,31; 3,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,35</t>
+          <t>0,64; 2,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,93</t>
+          <t>0,44; 3,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,21</t>
+          <t>0,85; 3,12</t>
         </is>
       </c>
     </row>
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,92</t>
+          <t>0,44; 4,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,56</t>
+          <t>0,37; 5,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,61</t>
+          <t>0,39; 3,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,88</t>
+          <t>0,08; 2,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +890,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,79</t>
+          <t>0,61; 5,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,84</t>
+          <t>0,74; 4,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,21</t>
+          <t>0,25; 2,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,21</t>
+          <t>0,47; 3,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,59</t>
+          <t>0,69; 3,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,58</t>
+          <t>0,55; 2,64</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,03</t>
+          <t>0,51; 3,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,39</t>
+          <t>1,82; 6,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,68</t>
+          <t>0,94; 4,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,36</t>
+          <t>0,76; 4,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,7 +1035,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,06</t>
+          <t>0,0; 9,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1045,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,53</t>
+          <t>0,44; 2,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,16</t>
+          <t>1,44; 5,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,28</t>
+          <t>0,99; 4,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,7</t>
+          <t>0,62; 3,71</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,6</t>
+          <t>0,7; 2,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,79</t>
+          <t>1,38; 3,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,24</t>
+          <t>0,84; 2,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,86</t>
+          <t>1,2; 4,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,72</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,07</t>
+          <t>0,06; 2,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,06</t>
+          <t>0,47; 2,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,18</t>
+          <t>1,15; 3,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,25</t>
+          <t>0,68; 2,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,58</t>
+          <t>0,7; 2,7</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,03</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,68</t>
+          <t>1,3; 5,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,05</t>
+          <t>1,74; 6,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,41</t>
+          <t>0,95; 4,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 4,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,89</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,89</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,25</t>
+          <t>0,67; 4,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,65</t>
+          <t>0,29; 2,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,81</t>
+          <t>1,22; 3,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,25</t>
+          <t>1,26; 4,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,39</t>
+          <t>1,12; 3,63</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1430,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,29</t>
+          <t>0,66; 6,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,12</t>
+          <t>0,59; 5,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,41</t>
+          <t>0,74; 4,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,66</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,59</t>
+          <t>0,69; 3,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,01</t>
+          <t>1,16; 4,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,27</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,68</t>
+          <t>0,69; 1,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,45</t>
+          <t>1,91; 3,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,68</t>
+          <t>1,39; 2,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,5</t>
+          <t>1,24; 2,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,9</t>
+          <t>0,1; 0,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,71</t>
+          <t>0,39; 1,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,29</t>
+          <t>0,76; 2,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,19</t>
+          <t>0,57; 2,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,26</t>
+          <t>0,54; 1,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,57</t>
+          <t>1,46; 2,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,31</t>
+          <t>1,32; 2,27</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,13</t>
+          <t>1,04; 2,15</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le ha molestado que le criticasen la forma de beber</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5904</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2825</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2205</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6797</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5837</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7482</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4645</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2652; 12566</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>955; 8167</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2398; 11916</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1964</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5027</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10626</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>489; 5513</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4619</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2838; 13122</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1949; 13539</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3717; 13662</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4281</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3125</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5470</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7369</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>971; 9178</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>926; 14029</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>921; 8248</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>169; 5691</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5749</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1167; 10779</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>976; 6304</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>956; 8285</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1844; 14215</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2979; 13876</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1878; 9055</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13332</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7581</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13332</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8685</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1715; 10543</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7054; 24621</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3113; 15128</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1604; 10124</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5367</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1119</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1768; 10986</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6735; 23720</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3832; 16193</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1548; 9339</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9422</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15464</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11157</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11541</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2840</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9422</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17404</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12269</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14381</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4673; 17044</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9106; 26064</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5555; 19602</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6089; 20768</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5879</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4785</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>239; 8660</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4020; 17644</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10231; 27799</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6456; 21036</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6461; 24851</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2059</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8930</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11153</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5044</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2490</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10970</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12262</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7533</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6970</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3944; 15555</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5507; 19526</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2196; 10347</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6747</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8170</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5943</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>875; 5677</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1023; 9996</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5938; 18096</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6417; 20968</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4051; 13139</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3750</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5090</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6680</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9073</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1858</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>908; 9493</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>946; 9261</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4530</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4113</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10749</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1879; 11919</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11422</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5068</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2751; 14608</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4824; 17266</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11196</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>20089</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>51661</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>40012</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>27827</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>15484</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>12486</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>23048</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>60654</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>55495</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>40314</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12915; 30712</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>38773; 67996</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>27803; 54415</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>19028; 39613</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>924; 7924</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>4025; 18491</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8631; 25641</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5642; 21417</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>15005; 35177</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>45064; 78668</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>41560; 71154</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>26444; 54499</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P32A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
